--- a/修論/本文0117/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0105\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DDF47-E2C4-403E-8BB1-1BDF485003A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2584AFD9-4FD3-42B2-9F36-98F4DF3BF457}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="6660" windowHeight="255" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="4545" yWindow="0" windowWidth="6660" windowHeight="255" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>L500_slope</t>
     <phoneticPr fontId="1"/>
@@ -98,9 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -110,11 +107,44 @@
     <t>ｱ</t>
   </si>
   <si>
-    <t>10QWL500</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3QWL500</t>
+    <t>w=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>係数値</t>
+  </si>
+  <si>
+    <t>±標準偏差</t>
+  </si>
+  <si>
+    <t>1.#J</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1022,129 +1052,482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BF4A4-A247-40E2-A51F-61BAD6C8DE28}">
-  <dimension ref="D3:N11"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <f>0.0010684</f>
+        <v>1.0683999999999999E-3</v>
+      </c>
+      <c r="C2">
+        <f>1.7806</f>
+        <v>1.7806</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <f>1.7806</f>
+        <v>1.7806</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <f>0.0010684</f>
+        <v>1.0683999999999999E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="I4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <f>1/C2</f>
+        <v>0.5616084465910367</v>
+      </c>
+      <c r="C4">
+        <f>B2*LN(1/0.32)*B4*10000</f>
+        <v>6.836861665497298</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f>0.00029052</f>
+        <v>2.9052E-4</v>
+      </c>
+      <c r="C6">
+        <f>1.6215</f>
+        <v>1.6214999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <f>1.6215</f>
+        <v>1.6214999999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="K4">
-        <f>-0.000068602</f>
-        <v>-6.8602000000000005E-5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1">
-        <v>6.2399999999999998E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="I5" t="s">
+      <c r="G7">
+        <f>0.00029052</f>
+        <v>2.9052E-4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <f>1/C6</f>
+        <v>0.61671292013567691</v>
+      </c>
+      <c r="C8">
+        <f>B6*LN(1/0.32)*B8*10000</f>
+        <v>2.0414952078438713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f>0.001076</f>
+        <v>1.0759999999999999E-3</v>
+      </c>
+      <c r="C10">
+        <f>1.1512</f>
+        <v>1.1512</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G10">
+        <f>1.1512</f>
+        <v>1.1512</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2.1200000000000001E-9</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f>0.001076</f>
+        <v>1.0759999999999999E-3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f>1/C10</f>
+        <v>0.86865879082696318</v>
+      </c>
+      <c r="C12">
+        <f>B10*LN(1/0.32)*B12*10000</f>
+        <v>10.650028567674431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D7">
-        <v>16.7</v>
-      </c>
-      <c r="E7">
-        <v>1.06</v>
-      </c>
-      <c r="J7">
-        <f>0.00000032325</f>
-        <v>3.2324999999999999E-7</v>
-      </c>
-      <c r="K7">
-        <f>J7*1000*1000*2</f>
-        <v>0.64649999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <f>0.0034366</f>
+        <v>3.4366000000000002E-3</v>
+      </c>
+      <c r="C14">
+        <f>0.1432</f>
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f>0.1432</f>
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D9">
-        <f>1/E7</f>
-        <v>0.94339622641509424</v>
-      </c>
-      <c r="E9">
-        <f>D7*LN(1/0.32)*D9</f>
-        <v>17.951464650231781</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="L9">
-        <f>-0.076232</f>
-        <v>-7.6231999999999994E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9">
-        <v>5.3799999999999996E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="K10" t="s">
+      <c r="G15">
+        <f>0.0034366</f>
+        <v>3.4366000000000002E-3</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="L10">
-        <f>0.40989</f>
-        <v>0.40988999999999998</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10">
-        <v>1.73E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="K11">
-        <f>L10*1000*1000</f>
-        <v>409890</v>
+      <c r="I15" s="1">
+        <v>8.0699999999999996E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <f>1/C14</f>
+        <v>6.983240223463687</v>
+      </c>
+      <c r="C16">
+        <f>B14*LN(1/0.32)*B16*10000</f>
+        <v>273.44831407857083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f>0.0016731</f>
+        <v>1.6731000000000001E-3</v>
+      </c>
+      <c r="C18">
+        <f>1.0607</f>
+        <v>1.0607</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <f>1.0607</f>
+        <v>1.0607</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <f>0.0016731</f>
+        <v>1.6731000000000001E-3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>1.13E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <f>1/C18</f>
+        <v>0.9427736400490242</v>
+      </c>
+      <c r="C20">
+        <f>B18*LN(1/0.32)*B20*10000</f>
+        <v>17.972918819670532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <f>0.0011878</f>
+        <v>1.1877999999999999E-3</v>
+      </c>
+      <c r="C22">
+        <f>1.0645</f>
+        <v>1.0645</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f>1.0645</f>
+        <v>1.0645</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <f>0.0011878</f>
+        <v>1.1877999999999999E-3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <f>1/C22</f>
+        <v>0.93940817285110378</v>
+      </c>
+      <c r="C24">
+        <f>B22*LN(1/0.32)*B24*10000</f>
+        <v>12.714138483524092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28" t="e">
+        <f>1/C26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e">
+        <f>B26*LN(1/0.32)*B28</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/修論/本文0117/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文0117/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2584AFD9-4FD3-42B2-9F36-98F4DF3BF457}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB360CB-A58C-6A4E-AD6B-752D28867E99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="0" windowWidth="6660" windowHeight="255" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="-2780" yWindow="640" windowWidth="23940" windowHeight="14440" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
   <si>
     <t>L500_slope</t>
     <phoneticPr fontId="1"/>
@@ -145,6 +144,34 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_int+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_int-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma_i_int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma_alpha</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -152,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,12 +545,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -540,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>3</v>
       </c>
@@ -621,7 +648,7 @@
         <v>0.54581751501409603</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>5</v>
       </c>
@@ -664,7 +691,7 @@
         <v>0.35318500614659204</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>10</v>
       </c>
@@ -707,7 +734,7 @@
         <v>0.22860819240171459</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>30</v>
       </c>
@@ -738,7 +765,7 @@
         <v>0.55145777048344269</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>50</v>
       </c>
@@ -769,7 +796,7 @@
         <v>0.54581751501409603</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>100</v>
       </c>
@@ -797,7 +824,7 @@
         <v>0.60298226639260877</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>300</v>
       </c>
@@ -813,7 +840,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20">
       <c r="J10">
         <v>3</v>
       </c>
@@ -832,7 +859,7 @@
         <v>0.35061047512154497</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20">
       <c r="J11">
         <v>5</v>
       </c>
@@ -851,7 +878,7 @@
         <v>0.52273142430923292</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20">
       <c r="J12">
         <v>10</v>
       </c>
@@ -870,7 +897,7 @@
         <v>0.44945891632006374</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20">
       <c r="J13">
         <v>30</v>
       </c>
@@ -889,7 +916,7 @@
         <v>0.27388267549349676</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20">
       <c r="J14">
         <v>50</v>
       </c>
@@ -908,7 +935,7 @@
         <v>0.35318500614659204</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20">
       <c r="J15">
         <v>100</v>
       </c>
@@ -927,7 +954,7 @@
         <v>0.4435645952890348</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20">
       <c r="J16">
         <v>300</v>
       </c>
@@ -940,7 +967,7 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="10:14">
       <c r="J17">
         <v>3</v>
       </c>
@@ -953,7 +980,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="10:14">
       <c r="J18">
         <v>5</v>
       </c>
@@ -966,7 +993,7 @@
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="10:14">
       <c r="J19">
         <v>10</v>
       </c>
@@ -979,7 +1006,7 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="10:14">
       <c r="J20">
         <v>30</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>0.14338105285018854</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="10:14">
       <c r="J21">
         <v>50</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>0.22860819240171459</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="10:14">
       <c r="J22">
         <v>100</v>
       </c>
@@ -1030,7 +1057,7 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="10:14">
       <c r="J23">
         <v>300</v>
       </c>
@@ -1052,19 +1079,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BF4A4-A247-40E2-A51F-61BAD6C8DE28}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1080,8 +1108,32 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2">
         <f>0.0010684</f>
         <v>1.0683999999999999E-3</v>
@@ -1103,8 +1155,40 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K2">
+        <f>1/G2</f>
+        <v>0.5616084465910367</v>
+      </c>
+      <c r="L2" t="e">
+        <f>1/(G2-I2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" t="e">
+        <f>1/(G2+I2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" t="e">
+        <f>I2/G2/G2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2">
+        <f>G3*LN(1/0.32)*K2</f>
+        <v>6.8368616654972971</v>
+      </c>
+      <c r="Q2" t="e">
+        <f>(G3+I3)*LN(1/B4)*L2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2" t="e">
+        <f>(G3-I3)*LN(1/B4)*M2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" t="e">
+        <f>LN(1/0.32)*SQRT((K2*I3)^2+(G3*N2)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1115,8 +1199,8 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <f>0.0010684</f>
-        <v>1.0683999999999999E-3</v>
+        <f>0.0010684*10000</f>
+        <v>10.683999999999999</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -1124,9 +1208,8 @@
       <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4">
         <f>1/C2</f>
         <v>0.5616084465910367</v>
@@ -1137,7 +1220,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1153,9 +1236,32 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="B6">
         <f>0.00029052</f>
         <v>2.9052E-4</v>
@@ -1177,8 +1283,40 @@
       <c r="I6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <f t="shared" ref="K6:K26" si="0">1/G6</f>
+        <v>0.61671292013567691</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" ref="L6:L26" si="1">1/(G6-I6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" t="e">
+        <f t="shared" ref="M6:M26" si="2">1/(G6+I6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" t="e">
+        <f t="shared" ref="N6:N26" si="3">I6/G6/G6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P26" si="4">G7*LN(1/0.32)*K6</f>
+        <v>2.0414952078438717</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" ref="Q6" si="5">(G7+I7)*LN(1/B8)*L6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" t="e">
+        <f t="shared" ref="R6" si="6">(G7-I7)*LN(1/B8)*M6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" t="e">
+        <f t="shared" ref="S6:S26" si="7">LN(1/0.32)*SQRT((K6*I7)^2+(G7*N6)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1189,8 +1327,8 @@
         <v>17</v>
       </c>
       <c r="G7">
-        <f>0.00029052</f>
-        <v>2.9052E-4</v>
+        <f>0.00029052*10000</f>
+        <v>2.9052000000000002</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -1199,7 +1337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19">
       <c r="B8">
         <f>1/C6</f>
         <v>0.61671292013567691</v>
@@ -1208,8 +1346,9 @@
         <f>B6*LN(1/0.32)*B8*10000</f>
         <v>2.0414952078438713</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1225,8 +1364,32 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="B10">
         <f>0.001076</f>
         <v>1.0759999999999999E-3</v>
@@ -1248,8 +1411,40 @@
       <c r="I10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <f t="shared" ref="K10:K26" si="8">1/G10</f>
+        <v>0.86865879082696318</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" ref="L10:L26" si="9">1/(G10-I10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" ref="M10:M26" si="10">1/(G10+I10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10:N26" si="11">I10/G10/G10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P26" si="12">G11*LN(1/0.32)*K10</f>
+        <v>10.650028567674431</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" ref="Q10" si="13">(G11+I11)*LN(1/B12)*L10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" ref="R10" si="14">(G11-I11)*LN(1/B12)*M10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" ref="S10:S26" si="15">LN(1/0.32)*SQRT((K10*I11)^2+(G11*N10)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1260,8 +1455,8 @@
         <v>17</v>
       </c>
       <c r="G11">
-        <f>0.001076</f>
-        <v>1.0759999999999999E-3</v>
+        <f>0.001076*10000</f>
+        <v>10.76</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -1270,7 +1465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19">
       <c r="B12">
         <f>1/C10</f>
         <v>0.86865879082696318</v>
@@ -1279,8 +1474,9 @@
         <f>B10*LN(1/0.32)*B12*10000</f>
         <v>10.650028567674431</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1296,8 +1492,32 @@
       <c r="G13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="B14">
         <f>0.0034366</f>
         <v>3.4366000000000002E-3</v>
@@ -1319,8 +1539,40 @@
       <c r="I14">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <f t="shared" ref="K14:K26" si="16">1/G14</f>
+        <v>6.983240223463687</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L26" si="17">1/(G14-I14)</f>
+        <v>27.624309392265197</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M26" si="18">1/(G14+I14)</f>
+        <v>3.9968025579536373</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N26" si="19">I14/G14/G14</f>
+        <v>5.2179239099903247</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P26" si="20">G15*LN(1/0.32)*K14</f>
+        <v>273.44831407857083</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14" si="21">(G15+I15)*LN(1/B16)*L14</f>
+        <v>-1888.3752378225565</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14" si="22">(G15-I15)*LN(1/B16)*M14</f>
+        <v>-260.68086965509673</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:S26" si="23">LN(1/0.32)*SQRT((K14*I15)^2+(G15*N14)^2)</f>
+        <v>204.42328911472515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1331,17 +1583,18 @@
         <v>17</v>
       </c>
       <c r="G15">
-        <f>0.0034366</f>
-        <v>3.4366000000000002E-3</v>
+        <f>0.0034366*10000</f>
+        <v>34.366</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>8.0699999999999996E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+        <f>10000*0.0000807</f>
+        <v>0.80699999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="B16">
         <f>1/C14</f>
         <v>6.983240223463687</v>
@@ -1350,8 +1603,9 @@
         <f>B14*LN(1/0.32)*B16*10000</f>
         <v>273.44831407857083</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1367,8 +1621,32 @@
       <c r="G17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="B18">
         <f>0.0016731</f>
         <v>1.6731000000000001E-3</v>
@@ -1390,8 +1668,40 @@
       <c r="I18">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K18">
+        <f t="shared" ref="K18:K26" si="24">1/G18</f>
+        <v>0.9427736400490242</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L26" si="25">1/(G18-I18)</f>
+        <v>1.0968520346605244</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M26" si="26">1/(G18+I18)</f>
+        <v>0.82665123584359756</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N26" si="27">I18/G18/G18</f>
+        <v>0.13243449831932178</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P26" si="28">G19*LN(1/0.32)*K18</f>
+        <v>17.972918819670532</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18" si="29">(G19+I19)*LN(1/B20)*L18</f>
+        <v>1.1544719481634349</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18" si="30">(G19-I19)*LN(1/B20)*M18</f>
+        <v>0.75998378318956261</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S26" si="31">LN(1/0.32)*SQRT((K18*I19)^2+(G19*N18)^2)</f>
+        <v>2.8013719870484231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -1402,17 +1712,18 @@
         <v>17</v>
       </c>
       <c r="G19">
-        <f>0.0016731</f>
-        <v>1.6731000000000001E-3</v>
+        <f>0.0016731*10000</f>
+        <v>16.731000000000002</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
       </c>
       <c r="I19">
-        <v>1.13E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <f>10000*0.000113</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="B20">
         <f>1/C18</f>
         <v>0.9427736400490242</v>
@@ -1421,8 +1732,9 @@
         <f>B18*LN(1/0.32)*B20*10000</f>
         <v>17.972918819670532</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1438,8 +1750,32 @@
       <c r="G21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="B22">
         <f>0.0011878</f>
         <v>1.1877999999999999E-3</v>
@@ -1461,8 +1797,40 @@
       <c r="I22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <f t="shared" ref="K22:K26" si="32">1/G22</f>
+        <v>0.93940817285110378</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" ref="L22:L26" si="33">1/(G22-I22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" ref="M22:M26" si="34">1/(G22+I22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="shared" ref="N22:N26" si="35">I22/G22/G22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P26" si="36">G23*LN(1/0.32)*K22</f>
+        <v>12.714138483524094</v>
+      </c>
+      <c r="Q22" t="e">
+        <f t="shared" ref="Q22" si="37">(G23+I23)*LN(1/B24)*L22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" ref="R22" si="38">(G23-I23)*LN(1/B24)*M22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" ref="S22:S26" si="39">LN(1/0.32)*SQRT((K22*I23)^2+(G23*N22)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1841,8 @@
         <v>17</v>
       </c>
       <c r="G23">
-        <f>0.0011878</f>
-        <v>1.1877999999999999E-3</v>
+        <f>0.0011878*10000</f>
+        <v>11.878</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
@@ -1483,7 +1851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19">
       <c r="B24">
         <f>1/C22</f>
         <v>0.93940817285110378</v>
@@ -1492,8 +1860,9 @@
         <f>B22*LN(1/0.32)*B24*10000</f>
         <v>12.714138483524092</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1503,16 +1872,72 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K26" t="e">
+        <f t="shared" ref="K26" si="40">1/G26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" ref="L26" si="41">1/(G26-I26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" t="e">
+        <f t="shared" ref="M26" si="42">1/(G26+I26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" t="e">
+        <f t="shared" ref="N26" si="43">I26/G26/G26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" t="e">
+        <f t="shared" ref="P26" si="44">G27*LN(1/0.32)*K26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" t="e">
+        <f t="shared" ref="Q26" si="45">(G27+I27)*LN(1/B28)*L26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" t="e">
+        <f t="shared" ref="R26" si="46">(G27-I27)*LN(1/B28)*M26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S26" t="e">
+        <f t="shared" ref="S26" si="47">LN(1/0.32)*SQRT((K26*I27)^2+(G27*N26)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19">
       <c r="B28" t="e">
         <f>1/C26</f>
         <v>#VALUE!</v>
@@ -1529,6 +1954,7 @@
         <f>B26*LN(1/0.32)*B28</f>
         <v>#VALUE!</v>
       </c>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/修論/本文0117/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文0117/figure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB360CB-A58C-6A4E-AD6B-752D28867E99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D12C43F-6EF4-40A7-B46C-6206D0AF7C27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2780" yWindow="640" windowWidth="23940" windowHeight="14440" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="-1740" yWindow="645" windowWidth="19725" windowHeight="6480" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
   <si>
     <t>L500_slope</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +173,10 @@
   </si>
   <si>
     <t>sigma_alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w50and 100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -179,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,12 +550,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -567,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -648,7 +653,7 @@
         <v>0.54581751501409603</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>5</v>
       </c>
@@ -691,7 +696,7 @@
         <v>0.35318500614659204</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
@@ -734,7 +739,7 @@
         <v>0.22860819240171459</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>30</v>
       </c>
@@ -765,7 +770,7 @@
         <v>0.55145777048344269</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>50</v>
       </c>
@@ -796,7 +801,7 @@
         <v>0.54581751501409603</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>100</v>
       </c>
@@ -824,7 +829,7 @@
         <v>0.60298226639260877</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>300</v>
       </c>
@@ -840,7 +845,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J10">
         <v>3</v>
       </c>
@@ -859,7 +864,7 @@
         <v>0.35061047512154497</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J11">
         <v>5</v>
       </c>
@@ -878,7 +883,7 @@
         <v>0.52273142430923292</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J12">
         <v>10</v>
       </c>
@@ -897,7 +902,7 @@
         <v>0.44945891632006374</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J13">
         <v>30</v>
       </c>
@@ -916,7 +921,7 @@
         <v>0.27388267549349676</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J14">
         <v>50</v>
       </c>
@@ -935,7 +940,7 @@
         <v>0.35318500614659204</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J15">
         <v>100</v>
       </c>
@@ -954,7 +959,7 @@
         <v>0.4435645952890348</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J16">
         <v>300</v>
       </c>
@@ -967,7 +972,7 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="10:14">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J17">
         <v>3</v>
       </c>
@@ -980,7 +985,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="10:14">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J18">
         <v>5</v>
       </c>
@@ -993,7 +998,7 @@
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="10:14">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J19">
         <v>10</v>
       </c>
@@ -1006,7 +1011,7 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="10:14">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J20">
         <v>30</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>0.14338105285018854</v>
       </c>
     </row>
-    <row r="21" spans="10:14">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J21">
         <v>50</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>0.22860819240171459</v>
       </c>
     </row>
-    <row r="22" spans="10:14">
+    <row r="22" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J22">
         <v>100</v>
       </c>
@@ -1057,7 +1062,7 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="10:14">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.4">
       <c r="J23">
         <v>300</v>
       </c>
@@ -1079,20 +1084,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BF4A4-A247-40E2-A51F-61BAD6C8DE28}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B2">
         <f>0.0010684</f>
         <v>1.0683999999999999E-3</v>
@@ -1188,7 +1193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B4">
         <f>1/C2</f>
         <v>0.5616084465910367</v>
@@ -1220,7 +1225,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6">
         <f>0.00029052</f>
         <v>2.9052E-4</v>
@@ -1284,23 +1289,23 @@
         <v>28</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K26" si="0">1/G6</f>
+        <f t="shared" ref="K6" si="0">1/G6</f>
         <v>0.61671292013567691</v>
       </c>
       <c r="L6" t="e">
-        <f t="shared" ref="L6:L26" si="1">1/(G6-I6)</f>
+        <f t="shared" ref="L6" si="1">1/(G6-I6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" ref="M6:M26" si="2">1/(G6+I6)</f>
+        <f t="shared" ref="M6" si="2">1/(G6+I6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N6" t="e">
-        <f t="shared" ref="N6:N26" si="3">I6/G6/G6</f>
+        <f t="shared" ref="N6" si="3">I6/G6/G6</f>
         <v>#VALUE!</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P26" si="4">G7*LN(1/0.32)*K6</f>
+        <f t="shared" ref="P6" si="4">G7*LN(1/0.32)*K6</f>
         <v>2.0414952078438717</v>
       </c>
       <c r="Q6" t="e">
@@ -1312,11 +1317,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="S6" t="e">
-        <f t="shared" ref="S6:S26" si="7">LN(1/0.32)*SQRT((K6*I7)^2+(G7*N6)^2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <f t="shared" ref="S6" si="7">LN(1/0.32)*SQRT((K6*I7)^2+(G7*N6)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8">
         <f>1/C6</f>
         <v>0.61671292013567691</v>
@@ -1348,7 +1353,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10">
         <f>0.001076</f>
         <v>1.0759999999999999E-3</v>
@@ -1412,23 +1417,23 @@
         <v>28</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K26" si="8">1/G10</f>
+        <f t="shared" ref="K10" si="8">1/G10</f>
         <v>0.86865879082696318</v>
       </c>
       <c r="L10" t="e">
-        <f t="shared" ref="L10:L26" si="9">1/(G10-I10)</f>
+        <f t="shared" ref="L10" si="9">1/(G10-I10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M10" t="e">
-        <f t="shared" ref="M10:M26" si="10">1/(G10+I10)</f>
+        <f t="shared" ref="M10" si="10">1/(G10+I10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N10" t="e">
-        <f t="shared" ref="N10:N26" si="11">I10/G10/G10</f>
+        <f t="shared" ref="N10" si="11">I10/G10/G10</f>
         <v>#VALUE!</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P26" si="12">G11*LN(1/0.32)*K10</f>
+        <f t="shared" ref="P10" si="12">G11*LN(1/0.32)*K10</f>
         <v>10.650028567674431</v>
       </c>
       <c r="Q10" t="e">
@@ -1440,11 +1445,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="S10" t="e">
-        <f t="shared" ref="S10:S26" si="15">LN(1/0.32)*SQRT((K10*I11)^2+(G11*N10)^2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <f t="shared" ref="S10" si="15">LN(1/0.32)*SQRT((K10*I11)^2+(G11*N10)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>1/C10</f>
         <v>0.86865879082696318</v>
@@ -1476,7 +1481,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B14">
         <f>0.0034366</f>
         <v>3.4366000000000002E-3</v>
@@ -1540,23 +1545,23 @@
         <v>0.107</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K26" si="16">1/G14</f>
+        <f t="shared" ref="K14" si="16">1/G14</f>
         <v>6.983240223463687</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L26" si="17">1/(G14-I14)</f>
+        <f t="shared" ref="L14" si="17">1/(G14-I14)</f>
         <v>27.624309392265197</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M26" si="18">1/(G14+I14)</f>
+        <f t="shared" ref="M14" si="18">1/(G14+I14)</f>
         <v>3.9968025579536373</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N26" si="19">I14/G14/G14</f>
+        <f t="shared" ref="N14" si="19">I14/G14/G14</f>
         <v>5.2179239099903247</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P26" si="20">G15*LN(1/0.32)*K14</f>
+        <f t="shared" ref="P14" si="20">G15*LN(1/0.32)*K14</f>
         <v>273.44831407857083</v>
       </c>
       <c r="Q14">
@@ -1568,11 +1573,11 @@
         <v>-260.68086965509673</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S26" si="23">LN(1/0.32)*SQRT((K14*I15)^2+(G15*N14)^2)</f>
+        <f t="shared" ref="S14" si="23">LN(1/0.32)*SQRT((K14*I15)^2+(G15*N14)^2)</f>
         <v>204.42328911472515</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>0.80699999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B16">
         <f>1/C14</f>
         <v>6.983240223463687</v>
@@ -1605,7 +1610,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1646,7 +1651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>0.0016731</f>
         <v>1.6731000000000001E-3</v>
@@ -1669,23 +1674,23 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K26" si="24">1/G18</f>
+        <f t="shared" ref="K18" si="24">1/G18</f>
         <v>0.9427736400490242</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L26" si="25">1/(G18-I18)</f>
+        <f t="shared" ref="L18" si="25">1/(G18-I18)</f>
         <v>1.0968520346605244</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M26" si="26">1/(G18+I18)</f>
+        <f t="shared" ref="M18" si="26">1/(G18+I18)</f>
         <v>0.82665123584359756</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N26" si="27">I18/G18/G18</f>
+        <f t="shared" ref="N18" si="27">I18/G18/G18</f>
         <v>0.13243449831932178</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P26" si="28">G19*LN(1/0.32)*K18</f>
+        <f t="shared" ref="P18" si="28">G19*LN(1/0.32)*K18</f>
         <v>17.972918819670532</v>
       </c>
       <c r="Q18">
@@ -1697,11 +1702,11 @@
         <v>0.75998378318956261</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S26" si="31">LN(1/0.32)*SQRT((K18*I19)^2+(G19*N18)^2)</f>
+        <f t="shared" ref="S18" si="31">LN(1/0.32)*SQRT((K18*I19)^2+(G19*N18)^2)</f>
         <v>2.8013719870484231</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>1/C18</f>
         <v>0.9427736400490242</v>
@@ -1734,7 +1739,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1775,7 +1780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B22">
         <f>0.0011878</f>
         <v>1.1877999999999999E-3</v>
@@ -1798,23 +1803,23 @@
         <v>28</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K26" si="32">1/G22</f>
+        <f t="shared" ref="K22" si="32">1/G22</f>
         <v>0.93940817285110378</v>
       </c>
       <c r="L22" t="e">
-        <f t="shared" ref="L22:L26" si="33">1/(G22-I22)</f>
+        <f t="shared" ref="L22" si="33">1/(G22-I22)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M22" t="e">
-        <f t="shared" ref="M22:M26" si="34">1/(G22+I22)</f>
+        <f t="shared" ref="M22" si="34">1/(G22+I22)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N22" t="e">
-        <f t="shared" ref="N22:N26" si="35">I22/G22/G22</f>
+        <f t="shared" ref="N22" si="35">I22/G22/G22</f>
         <v>#VALUE!</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P26" si="36">G23*LN(1/0.32)*K22</f>
+        <f t="shared" ref="P22" si="36">G23*LN(1/0.32)*K22</f>
         <v>12.714138483524094</v>
       </c>
       <c r="Q22" t="e">
@@ -1826,11 +1831,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="S22" t="e">
-        <f t="shared" ref="S22:S26" si="39">LN(1/0.32)*SQRT((K22*I23)^2+(G23*N22)^2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <f t="shared" ref="S22" si="39">LN(1/0.32)*SQRT((K22*I23)^2+(G23*N22)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B24">
         <f>1/C22</f>
         <v>0.93940817285110378</v>
@@ -1862,7 +1867,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B28" t="e">
         <f>1/C26</f>
         <v>#VALUE!</v>
@@ -1955,6 +1960,107 @@
         <v>#VALUE!</v>
       </c>
       <c r="M28" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <f>0.84044</f>
+        <v>0.84043999999999996</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K31">
+        <f>1/G31</f>
+        <v>1.1898529341773358</v>
+      </c>
+      <c r="L31">
+        <f>1/(G31-I31)</f>
+        <v>1.6516913319238902</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="48">1/(G31+I31)</f>
+        <v>0.92985196756676336</v>
+      </c>
+      <c r="N31">
+        <f>I31/G31/G31</f>
+        <v>0.33270125116804755</v>
+      </c>
+      <c r="P31">
+        <f>G32*LN(1/0.32)*K31</f>
+        <v>23.69731549646546</v>
+      </c>
+      <c r="Q31">
+        <f>(G32+I32)*LN(1/0.32)*L31</f>
+        <v>36.772275467787821</v>
+      </c>
+      <c r="R31">
+        <f>(G32-I32)*LN(1/0.32)*M31</f>
+        <v>16.336510835082752</v>
+      </c>
+      <c r="S31">
+        <f>LN(1/0.32)*SQRT((K31*I32)^2+(G32*N31)^2)</f>
+        <v>7.1906716099545971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <f>0.0017479*10000</f>
+        <v>17.478999999999999</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <f>10000*0.000206</f>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
